--- a/dokument/grafer.xlsx
+++ b/dokument/grafer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Kartfunktionen</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>anläggningens effekt</t>
+  </si>
+  <si>
+    <t>Översikt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +135,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,11 +165,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -173,8 +189,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bra" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -497,11 +515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45430272"/>
-        <c:axId val="45431808"/>
+        <c:axId val="97757056"/>
+        <c:axId val="97758592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45430272"/>
+        <c:axId val="97757056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,7 +528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45431808"/>
+        <c:crossAx val="97758592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -518,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45431808"/>
+        <c:axId val="97758592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45430272"/>
+        <c:crossAx val="97757056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,7 +595,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
+              <c:f>Blad1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -589,7 +607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$2:$A$14</c:f>
+              <c:f>Blad1!$A$4:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -618,7 +636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$14</c:f>
+              <c:f>Blad1!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -652,7 +670,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$1</c:f>
+              <c:f>Blad1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -664,7 +682,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$2:$A$14</c:f>
+              <c:f>Blad1!$A$4:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -693,7 +711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$14</c:f>
+              <c:f>Blad1!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -727,7 +745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$1</c:f>
+              <c:f>Blad1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -739,7 +757,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$2:$A$14</c:f>
+              <c:f>Blad1!$A$4:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -768,7 +786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$14</c:f>
+              <c:f>Blad1!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -806,11 +824,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102393344"/>
-        <c:axId val="126877056"/>
+        <c:axId val="99189504"/>
+        <c:axId val="99191040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102393344"/>
+        <c:axId val="99189504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126877056"/>
+        <c:crossAx val="99191040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -827,7 +845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126877056"/>
+        <c:axId val="99191040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102393344"/>
+        <c:crossAx val="99189504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1157,11 +1175,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112729472"/>
-        <c:axId val="112779648"/>
+        <c:axId val="99216768"/>
+        <c:axId val="101319808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112729472"/>
+        <c:axId val="99216768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112779648"/>
+        <c:crossAx val="101319808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112779648"/>
+        <c:axId val="101319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112729472"/>
+        <c:crossAx val="99216768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,15 +1234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>290233</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>175933</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1246,15 +1264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>273984</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>159684</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1276,15 +1294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>207869</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>93569</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1593,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,114 +1626,130 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2012</v>
       </c>
-      <c r="C1">
+      <c r="C3">
         <v>2013</v>
       </c>
-      <c r="D1">
+      <c r="D3">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -1895,6 +1929,14 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41">

--- a/dokument/grafer.xlsx
+++ b/dokument/grafer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Kartfunktionen</t>
   </si>
@@ -114,7 +114,13 @@
     <t>anläggningens effekt</t>
   </si>
   <si>
-    <t>Översikt</t>
+    <t>Kartfunktionen(endast frågor som förekommit minst 2 gånger under ett och samma år)</t>
+  </si>
+  <si>
+    <t>Översikt(Antalet punkter som behövt kompletteras)</t>
+  </si>
+  <si>
+    <t>Totalt antal unika ansökningar</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$23</c:f>
+              <c:f>Blad1!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -244,7 +250,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$24:$A$35</c:f>
+              <c:f>Blad1!$A$42:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -288,7 +294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$24:$B$35</c:f>
+              <c:f>Blad1!$B$42:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -325,7 +331,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$23</c:f>
+              <c:f>Blad1!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -337,7 +343,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$24:$A$35</c:f>
+              <c:f>Blad1!$A$42:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -381,7 +387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$24:$C$35</c:f>
+              <c:f>Blad1!$C$42:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -424,7 +430,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$23</c:f>
+              <c:f>Blad1!$D$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -436,7 +442,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$24:$A$35</c:f>
+              <c:f>Blad1!$A$42:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -480,7 +486,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$24:$D$35</c:f>
+              <c:f>Blad1!$D$42:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -515,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97757056"/>
-        <c:axId val="97758592"/>
+        <c:axId val="96974720"/>
+        <c:axId val="96976256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97757056"/>
+        <c:axId val="96974720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97758592"/>
+        <c:crossAx val="96976256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -536,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97758592"/>
+        <c:axId val="96976256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97757056"/>
+        <c:crossAx val="96974720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -824,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99189504"/>
-        <c:axId val="99191040"/>
+        <c:axId val="97092352"/>
+        <c:axId val="97093888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99189504"/>
+        <c:axId val="97092352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99191040"/>
+        <c:crossAx val="97093888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -845,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99191040"/>
+        <c:axId val="97093888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99189504"/>
+        <c:crossAx val="97092352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,7 +910,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$41</c:f>
+              <c:f>Blad1!$B$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -916,7 +922,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$42:$A$54</c:f>
+              <c:f>Blad1!$A$78:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -963,7 +969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$42:$B$54</c:f>
+              <c:f>Blad1!$B$78:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
                 <c:ptCount val="13"/>
@@ -982,7 +988,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$41</c:f>
+              <c:f>Blad1!$C$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -994,7 +1000,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$42:$A$54</c:f>
+              <c:f>Blad1!$A$78:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1041,7 +1047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$42:$C$54</c:f>
+              <c:f>Blad1!$C$78:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1084,7 +1090,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$41</c:f>
+              <c:f>Blad1!$D$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1096,7 +1102,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$42:$A$54</c:f>
+              <c:f>Blad1!$A$78:$A$90</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1143,7 +1149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$42:$D$54</c:f>
+              <c:f>Blad1!$D$78:$D$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1175,11 +1181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99216768"/>
-        <c:axId val="101319808"/>
+        <c:axId val="97119616"/>
+        <c:axId val="97387648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99216768"/>
+        <c:axId val="97119616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101319808"/>
+        <c:crossAx val="97387648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101319808"/>
+        <c:axId val="97387648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1213,316 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99216768"/>
+        <c:crossAx val="97119616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$22:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Kartfunktionen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vattenskyddat område</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Formuläret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kommunalt område</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Övrigt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>installatör/borrare</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Åtgärdsinformation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$22:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$22:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Kartfunktionen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vattenskyddat område</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Formuläret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kommunalt område</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Övrigt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>installatör/borrare</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Åtgärdsinformation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$22:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$22:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Kartfunktionen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vattenskyddat område</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Formuläret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kommunalt område</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Övrigt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>installatör/borrare</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Åtgärdsinformation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$22:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="97409280"/>
+        <c:axId val="97419264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97409280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97419264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97419264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97409280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1233,16 +1548,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>290233</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3974</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>26995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175933</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107347</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>49407</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1293,16 +1608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>207869</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>560</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88806</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>128281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>93569</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76760</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320387</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180695</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1316,6 +1631,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54908</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1611,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D54"/>
+  <dimension ref="A2:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1973,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1743,196 +2088,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21">
+        <v>2013</v>
+      </c>
+      <c r="D21">
+        <v>2014</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2012</v>
-      </c>
-      <c r="C23">
-        <v>2013</v>
-      </c>
-      <c r="D23">
-        <v>2014</v>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
+      <c r="D34">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1950,142 +2225,329 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2012</v>
+      </c>
+      <c r="C77">
+        <v>2013</v>
+      </c>
+      <c r="D77">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7">
+        <v>1</v>
+      </c>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7">
         <v>2</v>
       </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="7">
+      <c r="B81" s="5"/>
+      <c r="C81" s="7">
         <v>4</v>
       </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B85" s="5"/>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7">
         <v>3</v>
       </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7">
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
         <v>5</v>
       </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dokument/grafer.xlsx
+++ b/dokument/grafer.xlsx
@@ -521,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96974720"/>
-        <c:axId val="96976256"/>
+        <c:axId val="97908608"/>
+        <c:axId val="97910144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96974720"/>
+        <c:axId val="97908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96976256"/>
+        <c:crossAx val="97910144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -542,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96976256"/>
+        <c:axId val="97910144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96974720"/>
+        <c:crossAx val="97908608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97092352"/>
-        <c:axId val="97093888"/>
+        <c:axId val="98026240"/>
+        <c:axId val="98027776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97092352"/>
+        <c:axId val="98026240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97093888"/>
+        <c:crossAx val="98027776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97093888"/>
+        <c:axId val="98027776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97092352"/>
+        <c:crossAx val="98026240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,11 +1181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97119616"/>
-        <c:axId val="97387648"/>
+        <c:axId val="99761536"/>
+        <c:axId val="99763328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97119616"/>
+        <c:axId val="99761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97387648"/>
+        <c:crossAx val="99763328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,7 +1202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97387648"/>
+        <c:axId val="99763328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,14 +1213,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97119616"/>
+        <c:crossAx val="99761536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1490,11 +1489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97409280"/>
-        <c:axId val="97419264"/>
+        <c:axId val="99793152"/>
+        <c:axId val="99803136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97409280"/>
+        <c:axId val="99793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97419264"/>
+        <c:crossAx val="99803136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97419264"/>
+        <c:axId val="99803136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97409280"/>
+        <c:crossAx val="99793152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1958,15 +1957,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
